--- a/data/3FEB_25_26_j1/boxscores_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26_j1/boxscores_25_26_3FEB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA131"/>
+  <dimension ref="A1:AA149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>https://imagenes.feb.es/Foto.aspx?c=2659207</t>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2596900</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=980015&amp;c=2659207</t>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=980015&amp;c=2596900</t>
         </is>
       </c>
     </row>
@@ -13437,6 +13437,1788 @@
       <c r="AA131" t="inlineStr">
         <is>
           <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981351&amp;c=2162497</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Derrota</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>67</v>
+      </c>
+      <c r="G132" t="n">
+        <v>85</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>BARCALA BELTRAN, PELAYO</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>12.23333333333333</v>
+      </c>
+      <c r="L132" t="n">
+        <v>8</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>2</v>
+      </c>
+      <c r="R132" t="n">
+        <v>3</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1</v>
+      </c>
+      <c r="V132" t="n">
+        <v>1</v>
+      </c>
+      <c r="W132" t="n">
+        <v>3</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2227461</t>
+        </is>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981284&amp;c=2227461</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Derrota</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>67</v>
+      </c>
+      <c r="G133" t="n">
+        <v>85</v>
+      </c>
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ SANCHEZ, LUIS</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>27.93333333333333</v>
+      </c>
+      <c r="L133" t="n">
+        <v>11</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>3</v>
+      </c>
+      <c r="O133" t="n">
+        <v>2</v>
+      </c>
+      <c r="P133" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>3</v>
+      </c>
+      <c r="R133" t="n">
+        <v>4</v>
+      </c>
+      <c r="S133" t="n">
+        <v>1</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2</v>
+      </c>
+      <c r="V133" t="n">
+        <v>1</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1</v>
+      </c>
+      <c r="X133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=1994473</t>
+        </is>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981284&amp;c=1994473</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Derrota</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>67</v>
+      </c>
+      <c r="G134" t="n">
+        <v>85</v>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>VAL GUTIERREZ, DIEGO</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="L134" t="n">
+        <v>14</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="n">
+        <v>3</v>
+      </c>
+      <c r="P134" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>1</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0</v>
+      </c>
+      <c r="T134" t="n">
+        <v>5</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=1894117</t>
+        </is>
+      </c>
+      <c r="AA134" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981284&amp;c=1894117</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Derrota</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>67</v>
+      </c>
+      <c r="G135" t="n">
+        <v>85</v>
+      </c>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>BAILLO HERNÁNDEZ, BRUNO</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>20.61666666666667</v>
+      </c>
+      <c r="L135" t="n">
+        <v>6</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>2</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2</v>
+      </c>
+      <c r="S135" t="n">
+        <v>2</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1</v>
+      </c>
+      <c r="V135" t="n">
+        <v>1</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2177063</t>
+        </is>
+      </c>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981284&amp;c=2177063</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Derrota</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>67</v>
+      </c>
+      <c r="G136" t="n">
+        <v>85</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>BERMEJO FAJARDO, FRANCISCO JOSE</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" t="n">
+        <v>2</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0</v>
+      </c>
+      <c r="W136" t="n">
+        <v>4</v>
+      </c>
+      <c r="X136" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=1554047</t>
+        </is>
+      </c>
+      <c r="AA136" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981284&amp;c=1554047</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Derrota</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>67</v>
+      </c>
+      <c r="G137" t="n">
+        <v>85</v>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>ROPERO MORA, DAVID</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>10.88333333333333</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=1778878</t>
+        </is>
+      </c>
+      <c r="AA137" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981284&amp;c=1778878</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Derrota</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>67</v>
+      </c>
+      <c r="G138" t="n">
+        <v>85</v>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>DEUS VERA, RODRIGO</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="L138" t="n">
+        <v>12</v>
+      </c>
+      <c r="M138" t="n">
+        <v>4</v>
+      </c>
+      <c r="N138" t="n">
+        <v>10</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1</v>
+      </c>
+      <c r="R138" t="n">
+        <v>4</v>
+      </c>
+      <c r="S138" t="n">
+        <v>1</v>
+      </c>
+      <c r="T138" t="n">
+        <v>8</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1</v>
+      </c>
+      <c r="V138" t="n">
+        <v>1</v>
+      </c>
+      <c r="W138" t="n">
+        <v>4</v>
+      </c>
+      <c r="X138" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=1519988</t>
+        </is>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981284&amp;c=1519988</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Derrota</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>67</v>
+      </c>
+      <c r="G139" t="n">
+        <v>85</v>
+      </c>
+      <c r="H139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>VAL GUTIERREZ, SERGIO</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>28.66666666666667</v>
+      </c>
+      <c r="L139" t="n">
+        <v>7</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>3</v>
+      </c>
+      <c r="R139" t="n">
+        <v>5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>2</v>
+      </c>
+      <c r="T139" t="n">
+        <v>5</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>3</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2557718</t>
+        </is>
+      </c>
+      <c r="AA139" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981284&amp;c=2557718</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Derrota</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>67</v>
+      </c>
+      <c r="G140" t="n">
+        <v>85</v>
+      </c>
+      <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>ESPINOSA, FRANCISCO</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>27.78333333333333</v>
+      </c>
+      <c r="L140" t="n">
+        <v>9</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1</v>
+      </c>
+      <c r="P140" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>4</v>
+      </c>
+      <c r="R140" t="n">
+        <v>4</v>
+      </c>
+      <c r="S140" t="n">
+        <v>1</v>
+      </c>
+      <c r="T140" t="n">
+        <v>4</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2</v>
+      </c>
+      <c r="V140" t="n">
+        <v>1</v>
+      </c>
+      <c r="W140" t="n">
+        <v>2</v>
+      </c>
+      <c r="X140" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2819730</t>
+        </is>
+      </c>
+      <c r="AA140" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981284&amp;c=2819730</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>85</v>
+      </c>
+      <c r="G141" t="n">
+        <v>67</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>ABRIL RAMIRO, JOSE AGUSTIN</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>19.18333333333333</v>
+      </c>
+      <c r="L141" t="n">
+        <v>9</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O141" t="n">
+        <v>2</v>
+      </c>
+      <c r="P141" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2</v>
+      </c>
+      <c r="S141" t="n">
+        <v>2</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2</v>
+      </c>
+      <c r="V141" t="n">
+        <v>1</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2109456</t>
+        </is>
+      </c>
+      <c r="AA141" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981145&amp;c=2109456</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>85</v>
+      </c>
+      <c r="G142" t="n">
+        <v>67</v>
+      </c>
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>LLACER SIMLAT, EMILIO</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="L142" t="n">
+        <v>9</v>
+      </c>
+      <c r="M142" t="n">
+        <v>3</v>
+      </c>
+      <c r="N142" t="n">
+        <v>6</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1</v>
+      </c>
+      <c r="P142" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" t="n">
+        <v>2</v>
+      </c>
+      <c r="T142" t="n">
+        <v>4</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2090295</t>
+        </is>
+      </c>
+      <c r="AA142" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981145&amp;c=2090295</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>85</v>
+      </c>
+      <c r="G143" t="n">
+        <v>67</v>
+      </c>
+      <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>GASE SECO, ADRIANO</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L143" t="n">
+        <v>14</v>
+      </c>
+      <c r="M143" t="n">
+        <v>6</v>
+      </c>
+      <c r="N143" t="n">
+        <v>12</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>2</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3</v>
+      </c>
+      <c r="U143" t="n">
+        <v>3</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2451324</t>
+        </is>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981145&amp;c=2451324</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>85</v>
+      </c>
+      <c r="G144" t="n">
+        <v>67</v>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>BALSELLS PLAZA, ORIOL</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="L144" t="n">
+        <v>14</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="n">
+        <v>3</v>
+      </c>
+      <c r="P144" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0</v>
+      </c>
+      <c r="T144" t="n">
+        <v>7</v>
+      </c>
+      <c r="U144" t="n">
+        <v>4</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2061381</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981145&amp;c=2061381</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>85</v>
+      </c>
+      <c r="G145" t="n">
+        <v>67</v>
+      </c>
+      <c r="H145" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>GUEYE, SERIGNE MODOU</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>27.71666666666667</v>
+      </c>
+      <c r="L145" t="n">
+        <v>13</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3</v>
+      </c>
+      <c r="N145" t="n">
+        <v>5</v>
+      </c>
+      <c r="O145" t="n">
+        <v>2</v>
+      </c>
+      <c r="P145" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" t="n">
+        <v>4</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2</v>
+      </c>
+      <c r="W145" t="n">
+        <v>3</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2349443</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981145&amp;c=2349443</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>85</v>
+      </c>
+      <c r="G146" t="n">
+        <v>67</v>
+      </c>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>JIMÉNEZ BARRETO, ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>14.93333333333333</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1</v>
+      </c>
+      <c r="P146" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
+      <c r="S146" t="n">
+        <v>1</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1</v>
+      </c>
+      <c r="V146" t="n">
+        <v>1</v>
+      </c>
+      <c r="W146" t="n">
+        <v>2</v>
+      </c>
+      <c r="X146" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=1975819</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981145&amp;c=1975819</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>85</v>
+      </c>
+      <c r="G147" t="n">
+        <v>67</v>
+      </c>
+      <c r="H147" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>LARREA IBARBURU, JON</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>26.11666666666667</v>
+      </c>
+      <c r="L147" t="n">
+        <v>7</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>4</v>
+      </c>
+      <c r="O147" t="n">
+        <v>2</v>
+      </c>
+      <c r="P147" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>2</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>4</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1</v>
+      </c>
+      <c r="X147" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2257674</t>
+        </is>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981145&amp;c=2257674</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>85</v>
+      </c>
+      <c r="G148" t="n">
+        <v>67</v>
+      </c>
+      <c r="H148" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>VIERA LOPEZ, DIEGO</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="L148" t="n">
+        <v>8</v>
+      </c>
+      <c r="M148" t="n">
+        <v>4</v>
+      </c>
+      <c r="N148" t="n">
+        <v>10</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>4</v>
+      </c>
+      <c r="S148" t="n">
+        <v>7</v>
+      </c>
+      <c r="T148" t="n">
+        <v>4</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1</v>
+      </c>
+      <c r="X148" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2203814</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981145&amp;c=2203814</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Liga Regular "B-B"</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>CB ARIDANE</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>AUTOCARES RODRÍGUEZ</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>85</v>
+      </c>
+      <c r="G149" t="n">
+        <v>67</v>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>SKUTYELNIK, KYRYLO</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="L149" t="n">
+        <v>8</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1</v>
+      </c>
+      <c r="P149" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>3</v>
+      </c>
+      <c r="R149" t="n">
+        <v>5</v>
+      </c>
+      <c r="S149" t="n">
+        <v>1</v>
+      </c>
+      <c r="T149" t="n">
+        <v>3</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>2</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>https://imagenes.feb.es/Foto.aspx?c=2824644</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
+          <t>https://baloncestoenvivo.feb.es/Jugador.aspx?i=981145&amp;c=2824644</t>
         </is>
       </c>
     </row>
